--- a/TEMPLATE Request for Proposals Appendix I - Requirements Questionnaires.xlsx
+++ b/TEMPLATE Request for Proposals Appendix I - Requirements Questionnaires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Gardiner\src\nmfta-rfp_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE5B28-22DC-492D-9CFE-67AD32B055F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C96C6-1EC4-4738-AB8E-B4FBC827DF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="680" xr2:uid="{0949E400-3606-4C93-81F6-A50EB1B82B22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="21000" tabRatio="680" xr2:uid="{0949E400-3606-4C93-81F6-A50EB1B82B22}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Questionnaires" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="93">
   <si>
     <t>In the following sections there are collections of requirements from the Cybersecurity Requirements Matrix document, presented as evaluation tables. Each section pertains to generic classes of features or components in telematics solutions.
 This document is intended to be used in concert with the Template for Request For Proposals document. For the class of device that is being procured: copy and paste each applicable section into the template – or as a separate document attached to your RFP as also indicated in the Template for Request For Proposals document.</t>
@@ -166,9 +166,6 @@
     <t>IR-010 (Incidence Response) - The vendor shall have a documented incident response plan (IRP) in place which provides the carriers with a point of contact for components used within their telematics system</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>SAA-010 (Security Management) - The vendor shall have an Information Security Management Plan (ISMP)</t>
   </si>
   <si>
@@ -345,6 +342,18 @@
   <si>
     <t>&lt; Copy and paste, from the 'Cybersecurity Shortlists' tab, all the categories that apply to  the telematics system which you are procuring. In all cases there will be a 'cloud or Back-end' so that group is included below already.
  After combining all the relevant groups then delete this row and delete the 'Cybersecurity Shortlists' tab &gt;</t>
+  </si>
+  <si>
+    <t>SCP-120 (Unique API Keys and API Passwords) - The vendor’s software shall not contain any credentials that are shared among other copies of software; e.g. the software cannot contain hardcoded API keys or API passwords</t>
+  </si>
+  <si>
+    <t>SII-190 (Software Resiliency / Code Protections) - The vendor’s software will have software resiliency measures included that will slow the progress of tampering and reverse engineering efforts.</t>
+  </si>
+  <si>
+    <t>AA-010 (Audit and Accountability) - The vendor's system shall record event and system logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-020 (Planning) - The vendor shall have a documented Information Security Architecture (ISA) for the telematics system.  </t>
   </si>
 </sst>
 </file>
@@ -650,10 +659,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -669,58 +717,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91545E1-49ED-4500-A6F1-F40DF2F4A725}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,67 +1063,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1127,14 +1136,14 @@
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1142,11 +1151,11 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1164,51 +1173,51 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1221,14 +1230,14 @@
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1236,11 +1245,11 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="39"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1258,55 +1267,55 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1328,7 @@
       <c r="G19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="27"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1345,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1353,7 +1362,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -1369,7 +1378,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1385,7 +1394,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -1401,7 +1410,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1417,7 +1426,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1433,7 +1442,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1449,7 +1458,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>22</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1465,7 +1474,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1481,7 +1490,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -1497,7 +1506,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -1513,7 +1522,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -1529,7 +1538,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1545,7 +1554,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1561,15 +1570,15 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -1585,7 +1594,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -1593,7 +1602,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -1617,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1625,7 +1634,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>22</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -1641,7 +1650,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>22</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -1657,7 +1666,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1673,7 +1682,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -1689,7 +1698,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1705,7 +1714,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>16</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -1721,7 +1730,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>22</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -1737,7 +1746,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>22</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -1753,7 +1762,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -1769,7 +1778,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -1785,7 +1794,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -1801,7 +1810,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -1817,7 +1826,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -1833,7 +1842,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>22</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -1849,7 +1858,7 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>22</v>
       </c>
@@ -1857,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -1865,7 +1874,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -1881,7 +1890,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>16</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -1897,7 +1906,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -1913,15 +1922,15 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -1929,15 +1938,15 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -1945,18 +1954,152 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
+    <row r="59" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A2:H2"/>
@@ -1969,6 +2112,16 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1977,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848DA30-F248-4053-900D-2866F010ABDC}">
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:H189"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H200" sqref="A153:H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2144,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35"/>
@@ -2005,57 +2158,57 @@
       <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2221,7 @@
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -2094,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2102,7 +2255,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -2118,7 +2271,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -2134,7 +2287,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2295,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2150,7 +2303,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2166,7 +2319,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2182,7 +2335,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2343,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2198,15 +2351,15 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -2222,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2238,7 +2391,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -2246,7 +2399,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>1</v>
       </c>
@@ -2254,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2262,7 +2415,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2278,7 +2431,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2294,7 +2447,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2310,7 +2463,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2326,7 +2479,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +2487,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2342,7 +2495,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
@@ -2350,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2358,7 +2511,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>1</v>
       </c>
@@ -2366,7 +2519,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -2374,7 +2527,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2535,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2390,7 +2543,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2406,7 +2559,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -2414,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -2422,7 +2575,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -2438,7 +2591,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +2599,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -2454,7 +2607,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2470,7 +2623,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="13" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2486,7 +2639,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>1</v>
       </c>
@@ -2494,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2502,7 +2655,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:10" s="13" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="13" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>1</v>
       </c>
@@ -2510,7 +2663,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2518,7 +2671,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="13" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -2534,7 +2687,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -2550,7 +2703,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -2566,7 +2719,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2727,7 @@
         <v>16</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -2582,15 +2735,15 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="13" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -2598,15 +2751,15 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -2614,7 +2767,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>1</v>
       </c>
@@ -2622,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -2630,7 +2783,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:10" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -2646,7 +2799,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -2662,15 +2815,15 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="13" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -2678,15 +2831,15 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:10" s="13" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -2694,15 +2847,15 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:10" s="13" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -2710,101 +2863,97 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+    <row r="46" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-    </row>
-    <row r="47" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B49" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D49" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="26" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="1" t="s">
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="27"/>
-    </row>
-    <row r="50" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-    </row>
-    <row r="51" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
@@ -2816,15 +2965,15 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2838,13 +2987,13 @@
     </row>
     <row r="53" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2856,15 +3005,15 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2876,15 +3025,15 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -2896,15 +3045,15 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -2916,15 +3065,15 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -2936,15 +3085,15 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
@@ -2956,15 +3105,15 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
@@ -2976,15 +3125,15 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -2996,15 +3145,15 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -3016,15 +3165,15 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
@@ -3036,15 +3185,15 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -3056,15 +3205,15 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -3076,15 +3225,15 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -3098,13 +3247,13 @@
     </row>
     <row r="66" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -3116,15 +3265,15 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -3136,15 +3285,15 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -3156,15 +3305,15 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -3176,15 +3325,15 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="1:17" s="14" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -3196,15 +3345,15 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -3216,15 +3365,15 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="14" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -3236,15 +3385,15 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -3256,15 +3405,15 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -3276,15 +3425,15 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -3298,13 +3447,13 @@
     </row>
     <row r="76" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -3316,15 +3465,15 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -3338,13 +3487,13 @@
     </row>
     <row r="78" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -3356,15 +3505,15 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -3378,13 +3527,13 @@
     </row>
     <row r="80" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
@@ -3396,15 +3545,15 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
@@ -3416,15 +3565,15 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
@@ -3436,15 +3585,15 @@
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
@@ -3456,15 +3605,15 @@
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" s="14" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
@@ -3476,15 +3625,15 @@
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -3496,15 +3645,15 @@
       <c r="P85" s="15"/>
       <c r="Q85" s="15"/>
     </row>
-    <row r="86" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -3516,15 +3665,15 @@
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -3536,15 +3685,15 @@
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -3556,15 +3705,15 @@
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -3576,15 +3725,15 @@
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -3596,15 +3745,15 @@
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -3616,15 +3765,15 @@
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -3636,15 +3785,15 @@
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
@@ -3656,15 +3805,15 @@
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="1:17" s="14" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -3676,15 +3825,15 @@
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
@@ -3696,101 +3845,101 @@
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
+    <row r="96" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+    </row>
+    <row r="97" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-    </row>
-    <row r="97" spans="1:17" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
+      <c r="B97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+    </row>
+    <row r="98" spans="1:17" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-    </row>
-    <row r="98" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="26" t="s">
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B99" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C99" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D99" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26" t="s">
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="1" t="s">
+    <row r="100" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="27"/>
-    </row>
-    <row r="100" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-    </row>
-    <row r="101" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
@@ -3802,15 +3951,15 @@
       <c r="P101" s="15"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
@@ -3822,15 +3971,15 @@
       <c r="P102" s="15"/>
       <c r="Q102" s="15"/>
     </row>
-    <row r="103" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
@@ -3842,15 +3991,15 @@
       <c r="P103" s="15"/>
       <c r="Q103" s="15"/>
     </row>
-    <row r="104" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B104" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -3862,15 +4011,15 @@
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
     </row>
-    <row r="105" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
@@ -3882,15 +4031,15 @@
       <c r="P105" s="15"/>
       <c r="Q105" s="15"/>
     </row>
-    <row r="106" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
@@ -3902,15 +4051,15 @@
       <c r="P106" s="15"/>
       <c r="Q106" s="15"/>
     </row>
-    <row r="107" spans="1:17" s="14" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
@@ -3922,15 +4071,15 @@
       <c r="P107" s="15"/>
       <c r="Q107" s="15"/>
     </row>
-    <row r="108" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
@@ -3942,15 +4091,15 @@
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
@@ -3962,15 +4111,15 @@
       <c r="P109" s="15"/>
       <c r="Q109" s="15"/>
     </row>
-    <row r="110" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -3982,15 +4131,15 @@
       <c r="P110" s="15"/>
       <c r="Q110" s="15"/>
     </row>
-    <row r="111" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" s="14" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
@@ -4002,15 +4151,15 @@
       <c r="P111" s="15"/>
       <c r="Q111" s="15"/>
     </row>
-    <row r="112" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
@@ -4022,15 +4171,15 @@
       <c r="P112" s="15"/>
       <c r="Q112" s="15"/>
     </row>
-    <row r="113" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
@@ -4042,15 +4191,15 @@
       <c r="P113" s="15"/>
       <c r="Q113" s="15"/>
     </row>
-    <row r="114" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
@@ -4062,15 +4211,15 @@
       <c r="P114" s="15"/>
       <c r="Q114" s="15"/>
     </row>
-    <row r="115" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
@@ -4082,15 +4231,15 @@
       <c r="P115" s="15"/>
       <c r="Q115" s="15"/>
     </row>
-    <row r="116" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -4102,15 +4251,15 @@
       <c r="P116" s="15"/>
       <c r="Q116" s="15"/>
     </row>
-    <row r="117" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
@@ -4122,15 +4271,15 @@
       <c r="P117" s="15"/>
       <c r="Q117" s="15"/>
     </row>
-    <row r="118" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
@@ -4142,15 +4291,15 @@
       <c r="P118" s="15"/>
       <c r="Q118" s="15"/>
     </row>
-    <row r="119" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
@@ -4162,15 +4311,15 @@
       <c r="P119" s="15"/>
       <c r="Q119" s="15"/>
     </row>
-    <row r="120" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -4182,15 +4331,15 @@
       <c r="P120" s="15"/>
       <c r="Q120" s="15"/>
     </row>
-    <row r="121" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
@@ -4202,15 +4351,15 @@
       <c r="P121" s="15"/>
       <c r="Q121" s="15"/>
     </row>
-    <row r="122" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
@@ -4222,15 +4371,15 @@
       <c r="P122" s="15"/>
       <c r="Q122" s="15"/>
     </row>
-    <row r="123" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" s="14" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
@@ -4244,13 +4393,13 @@
     </row>
     <row r="124" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
@@ -4262,15 +4411,15 @@
       <c r="P124" s="15"/>
       <c r="Q124" s="15"/>
     </row>
-    <row r="125" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
@@ -4282,15 +4431,15 @@
       <c r="P125" s="15"/>
       <c r="Q125" s="15"/>
     </row>
-    <row r="126" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
@@ -4302,15 +4451,15 @@
       <c r="P126" s="15"/>
       <c r="Q126" s="15"/>
     </row>
-    <row r="127" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
@@ -4322,15 +4471,15 @@
       <c r="P127" s="15"/>
       <c r="Q127" s="15"/>
     </row>
-    <row r="128" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
@@ -4342,15 +4491,15 @@
       <c r="P128" s="15"/>
       <c r="Q128" s="15"/>
     </row>
-    <row r="129" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
@@ -4362,15 +4511,15 @@
       <c r="P129" s="15"/>
       <c r="Q129" s="15"/>
     </row>
-    <row r="130" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
@@ -4384,13 +4533,13 @@
     </row>
     <row r="131" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
@@ -4402,15 +4551,15 @@
       <c r="P131" s="15"/>
       <c r="Q131" s="15"/>
     </row>
-    <row r="132" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D132" s="12"/>
       <c r="E132" s="12"/>
@@ -4422,15 +4571,15 @@
       <c r="P132" s="15"/>
       <c r="Q132" s="15"/>
     </row>
-    <row r="133" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
@@ -4442,15 +4591,15 @@
       <c r="P133" s="15"/>
       <c r="Q133" s="15"/>
     </row>
-    <row r="134" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
@@ -4462,15 +4611,15 @@
       <c r="P134" s="15"/>
       <c r="Q134" s="15"/>
     </row>
-    <row r="135" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" s="14" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
@@ -4482,15 +4631,15 @@
       <c r="P135" s="15"/>
       <c r="Q135" s="15"/>
     </row>
-    <row r="136" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
@@ -4504,13 +4653,13 @@
     </row>
     <row r="137" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
@@ -4522,15 +4671,15 @@
       <c r="P137" s="15"/>
       <c r="Q137" s="15"/>
     </row>
-    <row r="138" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -4542,15 +4691,15 @@
       <c r="P138" s="15"/>
       <c r="Q138" s="15"/>
     </row>
-    <row r="139" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -4562,15 +4711,15 @@
       <c r="P139" s="15"/>
       <c r="Q139" s="15"/>
     </row>
-    <row r="140" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
@@ -4582,15 +4731,15 @@
       <c r="P140" s="15"/>
       <c r="Q140" s="15"/>
     </row>
-    <row r="141" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
@@ -4602,15 +4751,15 @@
       <c r="P141" s="15"/>
       <c r="Q141" s="15"/>
     </row>
-    <row r="142" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
@@ -4622,15 +4771,15 @@
       <c r="P142" s="15"/>
       <c r="Q142" s="15"/>
     </row>
-    <row r="143" spans="1:17" s="14" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
@@ -4642,9 +4791,9 @@
       <c r="P143" s="15"/>
       <c r="Q143" s="15"/>
     </row>
-    <row r="144" spans="1:17" s="14" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="12" t="s">
         <v>16</v>
@@ -4662,15 +4811,15 @@
       <c r="P144" s="15"/>
       <c r="Q144" s="15"/>
     </row>
-    <row r="145" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
@@ -4682,15 +4831,15 @@
       <c r="P145" s="15"/>
       <c r="Q145" s="15"/>
     </row>
-    <row r="146" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -4702,121 +4851,121 @@
       <c r="P146" s="15"/>
       <c r="Q146" s="15"/>
     </row>
-    <row r="147" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A147" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
-      <c r="G147" s="32"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="32"/>
-      <c r="J147" s="32"/>
-    </row>
-    <row r="148" spans="1:17" s="2" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="22" t="s">
+    <row r="147" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+    </row>
+    <row r="148" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+    </row>
+    <row r="149" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39"/>
+      <c r="J149" s="39"/>
+    </row>
+    <row r="150" spans="1:17" s="2" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
-    </row>
-    <row r="149" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26" t="s">
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+    </row>
+    <row r="151" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B151" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C151" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D151" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="26" t="s">
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="27"/>
-      <c r="D150" s="1" t="s">
+    <row r="152" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H150" s="27"/>
-    </row>
-    <row r="151" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="12" t="s">
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
-      <c r="P151" s="15"/>
-      <c r="Q151" s="15"/>
-    </row>
-    <row r="152" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-      <c r="Q152" s="15"/>
-    </row>
-    <row r="153" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
@@ -4836,7 +4985,7 @@
         <v>15</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
@@ -4848,7 +4997,7 @@
       <c r="P154" s="15"/>
       <c r="Q154" s="15"/>
     </row>
-    <row r="155" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>22</v>
       </c>
@@ -4856,7 +5005,7 @@
         <v>15</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
@@ -4868,7 +5017,7 @@
       <c r="P155" s="15"/>
       <c r="Q155" s="15"/>
     </row>
-    <row r="156" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>22</v>
       </c>
@@ -4876,7 +5025,7 @@
         <v>15</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -4888,7 +5037,7 @@
       <c r="P156" s="15"/>
       <c r="Q156" s="15"/>
     </row>
-    <row r="157" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>22</v>
       </c>
@@ -4896,7 +5045,7 @@
         <v>15</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
@@ -4908,7 +5057,7 @@
       <c r="P157" s="15"/>
       <c r="Q157" s="15"/>
     </row>
-    <row r="158" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>22</v>
       </c>
@@ -4916,7 +5065,7 @@
         <v>15</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
@@ -4928,7 +5077,7 @@
       <c r="P158" s="15"/>
       <c r="Q158" s="15"/>
     </row>
-    <row r="159" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>22</v>
       </c>
@@ -4936,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
@@ -4948,7 +5097,7 @@
       <c r="P159" s="15"/>
       <c r="Q159" s="15"/>
     </row>
-    <row r="160" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +5105,7 @@
         <v>15</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12"/>
@@ -4968,7 +5117,7 @@
       <c r="P160" s="15"/>
       <c r="Q160" s="15"/>
     </row>
-    <row r="161" spans="1:17" s="14" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>22</v>
       </c>
@@ -4976,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
@@ -4988,7 +5137,7 @@
       <c r="P161" s="15"/>
       <c r="Q161" s="15"/>
     </row>
-    <row r="162" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>22</v>
       </c>
@@ -4996,7 +5145,7 @@
         <v>15</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D162" s="12"/>
       <c r="E162" s="12"/>
@@ -5008,7 +5157,7 @@
       <c r="P162" s="15"/>
       <c r="Q162" s="15"/>
     </row>
-    <row r="163" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>22</v>
       </c>
@@ -5016,7 +5165,7 @@
         <v>15</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -5028,7 +5177,7 @@
       <c r="P163" s="15"/>
       <c r="Q163" s="15"/>
     </row>
-    <row r="164" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" s="14" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>22</v>
       </c>
@@ -5036,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
@@ -5048,7 +5197,7 @@
       <c r="P164" s="15"/>
       <c r="Q164" s="15"/>
     </row>
-    <row r="165" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>22</v>
       </c>
@@ -5056,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
@@ -5068,15 +5217,15 @@
       <c r="P165" s="15"/>
       <c r="Q165" s="15"/>
     </row>
-    <row r="166" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
@@ -5088,15 +5237,15 @@
       <c r="P166" s="15"/>
       <c r="Q166" s="15"/>
     </row>
-    <row r="167" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
@@ -5113,10 +5262,10 @@
         <v>22</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
@@ -5128,7 +5277,7 @@
       <c r="P168" s="15"/>
       <c r="Q168" s="15"/>
     </row>
-    <row r="169" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>22</v>
       </c>
@@ -5136,7 +5285,7 @@
         <v>16</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
@@ -5148,7 +5297,7 @@
       <c r="P169" s="15"/>
       <c r="Q169" s="15"/>
     </row>
-    <row r="170" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>22</v>
       </c>
@@ -5156,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
@@ -5168,7 +5317,7 @@
       <c r="P170" s="15"/>
       <c r="Q170" s="15"/>
     </row>
-    <row r="171" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5325,7 @@
         <v>16</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
@@ -5188,7 +5337,7 @@
       <c r="P171" s="15"/>
       <c r="Q171" s="15"/>
     </row>
-    <row r="172" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>22</v>
       </c>
@@ -5196,7 +5345,7 @@
         <v>16</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
@@ -5208,7 +5357,7 @@
       <c r="P172" s="15"/>
       <c r="Q172" s="15"/>
     </row>
-    <row r="173" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>22</v>
       </c>
@@ -5216,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
@@ -5228,7 +5377,7 @@
       <c r="P173" s="15"/>
       <c r="Q173" s="15"/>
     </row>
-    <row r="174" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>22</v>
       </c>
@@ -5236,7 +5385,7 @@
         <v>16</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
@@ -5248,7 +5397,7 @@
       <c r="P174" s="15"/>
       <c r="Q174" s="15"/>
     </row>
-    <row r="175" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>22</v>
       </c>
@@ -5256,7 +5405,7 @@
         <v>16</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
@@ -5268,7 +5417,7 @@
       <c r="P175" s="15"/>
       <c r="Q175" s="15"/>
     </row>
-    <row r="176" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>22</v>
       </c>
@@ -5276,7 +5425,7 @@
         <v>16</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
@@ -5288,7 +5437,7 @@
       <c r="P176" s="15"/>
       <c r="Q176" s="15"/>
     </row>
-    <row r="177" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>22</v>
       </c>
@@ -5296,7 +5445,7 @@
         <v>16</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
@@ -5308,7 +5457,7 @@
       <c r="P177" s="15"/>
       <c r="Q177" s="15"/>
     </row>
-    <row r="178" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>22</v>
       </c>
@@ -5316,7 +5465,7 @@
         <v>16</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -5328,7 +5477,7 @@
       <c r="P178" s="15"/>
       <c r="Q178" s="15"/>
     </row>
-    <row r="179" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>22</v>
       </c>
@@ -5336,7 +5485,7 @@
         <v>16</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
@@ -5348,7 +5497,7 @@
       <c r="P179" s="15"/>
       <c r="Q179" s="15"/>
     </row>
-    <row r="180" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>22</v>
       </c>
@@ -5356,7 +5505,7 @@
         <v>16</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D180" s="12"/>
       <c r="E180" s="12"/>
@@ -5368,7 +5517,7 @@
       <c r="P180" s="15"/>
       <c r="Q180" s="15"/>
     </row>
-    <row r="181" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>22</v>
       </c>
@@ -5376,7 +5525,7 @@
         <v>16</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
@@ -5388,7 +5537,7 @@
       <c r="P181" s="15"/>
       <c r="Q181" s="15"/>
     </row>
-    <row r="182" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>22</v>
       </c>
@@ -5396,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="12"/>
@@ -5408,7 +5557,7 @@
       <c r="P182" s="15"/>
       <c r="Q182" s="15"/>
     </row>
-    <row r="183" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>22</v>
       </c>
@@ -5416,7 +5565,7 @@
         <v>16</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
@@ -5428,7 +5577,7 @@
       <c r="P183" s="15"/>
       <c r="Q183" s="15"/>
     </row>
-    <row r="184" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>22</v>
       </c>
@@ -5436,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="12"/>
@@ -5448,7 +5597,7 @@
       <c r="P184" s="15"/>
       <c r="Q184" s="15"/>
     </row>
-    <row r="185" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>22</v>
       </c>
@@ -5456,7 +5605,7 @@
         <v>16</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
@@ -5468,7 +5617,7 @@
       <c r="P185" s="15"/>
       <c r="Q185" s="15"/>
     </row>
-    <row r="186" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" s="14" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>22</v>
       </c>
@@ -5476,7 +5625,7 @@
         <v>16</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
@@ -5488,7 +5637,7 @@
       <c r="P186" s="15"/>
       <c r="Q186" s="15"/>
     </row>
-    <row r="187" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>22</v>
       </c>
@@ -5496,7 +5645,7 @@
         <v>16</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
@@ -5508,15 +5657,15 @@
       <c r="P187" s="15"/>
       <c r="Q187" s="15"/>
     </row>
-    <row r="188" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" s="14" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
@@ -5528,15 +5677,15 @@
       <c r="P188" s="15"/>
       <c r="Q188" s="15"/>
     </row>
-    <row r="189" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" s="14" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
@@ -5548,8 +5697,249 @@
       <c r="P189" s="15"/>
       <c r="Q189" s="15"/>
     </row>
+    <row r="190" spans="1:17" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15"/>
+    </row>
+    <row r="191" spans="1:17" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+    </row>
+    <row r="192" spans="1:17" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+    </row>
+    <row r="193" spans="1:17" s="14" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+    </row>
+    <row r="194" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+    </row>
+    <row r="195" spans="1:17" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+    </row>
+    <row r="196" spans="1:17" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="15"/>
+    </row>
+    <row r="197" spans="1:17" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+    </row>
+    <row r="198" spans="1:17" s="14" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="N198" s="15"/>
+      <c r="O198" s="15"/>
+      <c r="P198" s="15"/>
+      <c r="Q198" s="15"/>
+    </row>
+    <row r="199" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+    </row>
+    <row r="200" spans="1:17" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A150:J150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A97:J97"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:H5"/>
@@ -5558,27 +5948,6 @@
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:J97"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A147:J147"/>
-    <mergeCell ref="A148:J148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="H149:H150"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="H98:H99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
